--- a/数据整理/stocks/港股/01088-中国神华.xlsx
+++ b/数据整理/stocks/港股/01088-中国神华.xlsx
@@ -451,491 +451,661 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4518</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008263</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红品质优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3542</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>169108</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红均衡优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3397</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2825</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>005702</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>恒生前海港股通高股息低波动指数</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>94.32</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2.75</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006106</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城量化港股通股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>87.87</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501305</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005051</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005052</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501306</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004532</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>95.17</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>3.70</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004533</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>95.17</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005974</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>东方红配置精选混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>23.11</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005975</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>东方红配置精选混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>23.11</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008263</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>东方红品质优选两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>25.10</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>169108</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>东方红均衡优选两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>23.80</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008269</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>大成睿享混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>86.51</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008270</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>大成睿享混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>86.51</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009242</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中加核心智造混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009243</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中加核心智造混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -945,7 +1115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,15 +1136,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -986,25 +1166,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008809</t>
+          <t>011121</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安信民稳增长混合A</t>
+          <t>广发兴诚混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.77</t>
+          <t>107.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>62.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2019</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008810</t>
+          <t>011130</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信民稳增长混合C</t>
+          <t>广发兴诚混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>34.77</t>
+          <t>61.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>62.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9811</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>008263</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>东方红品质优选两年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>25.21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3403</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004533</t>
+          <t>008269</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
+          <t>大成睿享混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2963</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008263</t>
+          <t>008809</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东方红品质优选两年定期开放混合</t>
+          <t>安信民稳增长混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22.18</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>34.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1936</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>009242</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>中加核心智造混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>008810</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>安信民稳增长混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>34.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005269</t>
+          <t>008270</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
+          <t>大成睿享混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.73</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006106</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>景顺长城量化港股通股票</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>86.66</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011121</t>
+          <t>005052</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发兴诚混合A</t>
+          <t>上投摩根标普港股通低波红利指数C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>62.91</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011130</t>
+          <t>009243</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>广发兴诚混合C</t>
+          <t>中加核心智造混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>62.91</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005702</t>
+          <t>006106</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恒生前海港股通高股息低波动指数</t>
+          <t>景顺长城量化港股通股票</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008269</t>
+          <t>005702</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>大成睿享混合A</t>
+          <t>恒生前海港股通高股息低波动指数</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>82.62</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008270</t>
+          <t>005269</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>大成睿享混合C</t>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>82.62</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009242</t>
+          <t>004532</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中加核心智造混合A</t>
+          <t>民生加银中证港股通高股息精选指数A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>81.84</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009243</t>
+          <t>004533</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中加核心智造混合C</t>
+          <t>民生加银中证港股通高股息精选指数C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>81.84</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01088-中国神华.xlsx
+++ b/数据整理/stocks/港股/01088-中国神华.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1847,4 +1848,858 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9490</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>52.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1901</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6824</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008263</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红品质优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3168</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2912</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01088-中国神华.xlsx
+++ b/数据整理/stocks/港股/01088-中国神华.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2702,4 +2703,1162 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1187</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>46.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5307</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008263</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红品质优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2052</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>46.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1718</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01088-中国神华.xlsx
+++ b/数据整理/stocks/港股/01088-中国神华.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3861,4 +3862,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01088-中国神华.xlsx
+++ b/数据整理/stocks/港股/01088-中国神华.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3870,7 +3871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3881,17 +3882,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3901,14 +3922,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.54</v>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>44.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5030</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3917,14 +3960,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.24</v>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8976</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3933,14 +3998,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.44</v>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0387</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3949,13 +4036,1099 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2407</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2263</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2125</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>44.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.85</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01088-中国神华.xlsx
+++ b/数据整理/stocks/港股/01088-中国神华.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5027,7 +5028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5038,17 +5039,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5058,14 +5079,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.37</v>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3216</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -5074,14 +5117,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.54</v>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8603</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -5090,14 +5155,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.24</v>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4553</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -5106,14 +5193,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.44</v>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6106</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -5122,13 +5231,2333 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4871</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>44.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4678</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008528</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4406</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4266</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3542</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>56.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3385</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3316</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015119</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合D</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3316</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012256</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3258</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2889</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2678</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2646</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2540</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>44.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1801</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010415</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010707</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信平稳合盈一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012257</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001824</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时沪港深成长企业混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010416</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>37.77</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010708</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>安信平稳合盈一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>16</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.85</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01088-中国神华.xlsx
+++ b/数据整理/stocks/港股/01088-中国神华.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7440,7 +7441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7451,17 +7452,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7471,14 +7492,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>62</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.1</v>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6835</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -7487,14 +7530,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.37</v>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3620</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -7503,14 +7568,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.54</v>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>49.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7797</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -7519,14 +7606,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.24</v>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6739</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -7535,14 +7644,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9.44</v>
+          <t>012256</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5078</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -7551,13 +7682,2343 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>35.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4699</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4177</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014772</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中泰红利价值一年持有混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3953</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3923</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>49.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3455</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014771</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中泰红利优选一年持有混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3454</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3196</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012701</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3144</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012702</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2396</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1997</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1868</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1782</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>40.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011726</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012586</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010661</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>35.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012257</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>513530</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012587</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>40.63</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002860</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>38.59</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015119</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合D</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>015118</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>62</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.85</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01088-中国神华.xlsx
+++ b/数据整理/stocks/港股/01088-中国神华.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="D2" t="n">
-        <v>11.78</v>
+        <v>22.66</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" t="n">
-        <v>15.1</v>
+        <v>11.78</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D4" t="n">
-        <v>7.37</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>3.54</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>8.24</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>9.44</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>16</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.85</v>
       </c>
     </row>
@@ -600,6 +617,4042 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H106"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010340</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达高质量严选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>124.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4807</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8130</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009100</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信稳健增利混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>113.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9249</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009101</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4283</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012892</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信优质企业三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3101</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012609</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信稳健汇利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6151</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012893</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信优质企业三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5925</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5470</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012256</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4591</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011841</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实兴锐优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4390</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014772</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中泰红利价值一年持有混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4368</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商中华预期高股息C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4008</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3964</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014771</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰红利优选一年持有混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3810</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>49.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3684</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3523</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012610</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信稳健汇利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3265</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>49.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3077</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2948</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商中华预期高股息A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2359</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2311</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012702</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1969</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时优势企业灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1931</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011842</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实兴锐优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012250</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信平衡增利混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013485</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>尚正竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>44.46</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012251</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信平衡增利混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012586</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>50.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011726</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>97.26</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>44.46</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008025</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010661</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012701</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>52.36</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>920011</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>513530</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>95.80</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012257</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013636</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国投瑞银策略回报混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>70.02</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>安信企业价值优选混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008026</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>920921</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159726</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏恒生中国内地企业高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>96.48</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>安信中国制造混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014615</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>尚正正鑫混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>34.23</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013486</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>尚正竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012587</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>50.74</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014616</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>尚正正鑫混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>34.23</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>013637</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>国投瑞银策略回报混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>70.02</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>013182</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>安信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>38.51</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002860</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>42.74</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>013181</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>安信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>38.51</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>博时优势企业灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>015118</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>015119</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合D</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>014971</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华安红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>016921</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3043,7 +7096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5448,1162 +9501,6 @@
       </c>
       <c r="H63" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008809</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>安信民稳增长混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>49.86</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>44.43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.5030</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008954</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>安信价值回报三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>26.03</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.42</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.8976</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010728</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中泰兴诚价值一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>13.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>84.67</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.81</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0387</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007178</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.05</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2407</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005504</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富沪港深大盘价值混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.33</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2263</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>167508</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>安信价值发现两年定期开放混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.66</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2125</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010729</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中泰兴诚价值一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>84.67</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.81</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1882</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009242</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中加核心智造混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>76.93</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1860</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008810</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>安信民稳增长混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>44.43</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1501</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>012071</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中加喜利回报一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>38.07</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1199</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009849</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>安信稳健聚申一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>32.06</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0986</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>519139</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>海富通沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.38</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0986</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005051</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0918</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>012072</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中加喜利回报一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>38.07</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0637</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>513690</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>博时恒生港股通高股息率ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>96.86</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0612</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>241001</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华宝海外中国混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.63</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0403</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>501305</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>86.14</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0346</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005052</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0274</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004393</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>安信合作创新主题沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>87.51</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0267</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>007216</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>9.05</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>004098</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>前海开源港股通股息率50强股票</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>86.44</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>011647</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时港股通红利精选混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>87.11</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009243</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中加核心智造混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>76.93</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>501306</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>86.14</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>501303</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>92.64</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>004996</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>92.64</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>160922</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>91.78</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>011648</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>博时港股通红利精选混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>87.11</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>010667</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>安信价值回报三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>92.42</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6638,7 +9535,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -6668,36 +9565,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010728</t>
+          <t>008809</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中泰兴诚价值一年持有期混合A</t>
+          <t>安信民稳增长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.43</t>
+          <t>49.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.83</t>
+          <t>44.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1187</t>
+          <t>2.5030</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -6706,36 +9603,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008809</t>
+          <t>008954</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信民稳增长混合A</t>
+          <t>安信价值回报三年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>26.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>46.92</t>
+          <t>92.42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5307</t>
+          <t>1.8976</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -6744,36 +9641,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008263</t>
+          <t>010728</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方红品质优选两年定期开放混合</t>
+          <t>中泰兴诚价值一年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25.71</t>
+          <t>13.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23.51</t>
+          <t>84.67</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3034</t>
+          <t>1.0387</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -6782,36 +9679,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010729</t>
+          <t>007178</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中泰兴诚价值一年持有期混合C</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82.83</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2052</t>
+          <t>0.2407</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -6820,36 +9717,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008810</t>
+          <t>005504</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安信民稳增长混合C</t>
+          <t>汇添富沪港深大盘价值混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>46.92</t>
+          <t>89.33</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1745</t>
+          <t>0.2263</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -6858,36 +9755,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009242</t>
+          <t>167508</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中加核心智造混合A</t>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>73.44</t>
+          <t>91.66</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1718</t>
+          <t>0.2125</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -6896,36 +9793,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011157</t>
+          <t>010729</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>弘毅远方港股通智选领航混合A</t>
+          <t>中泰兴诚价值一年持有期混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>84.67</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1654</t>
+          <t>0.1882</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -6934,36 +9831,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009849</t>
+          <t>009242</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>安信稳健聚申一年持有期混合</t>
+          <t>中加核心智造混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>29.37</t>
+          <t>76.93</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1408</t>
+          <t>0.1860</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -6972,36 +9869,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>008810</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>安信民稳增长混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>44.43</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1214</t>
+          <t>0.1501</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -7010,36 +9907,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007178</t>
+          <t>012071</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+          <t>中加喜利回报一年持有期混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>38.07</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1213</t>
+          <t>0.1199</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -7048,36 +9945,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011651</t>
+          <t>009849</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商港股通核心精选股票A</t>
+          <t>安信稳健聚申一年持有期混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>83.83</t>
+          <t>32.06</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0910</t>
+          <t>0.0986</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -7086,36 +9983,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>519139</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>海富通沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>91.38</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0880</t>
+          <t>0.0986</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -7124,32 +10021,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>513690</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>博时恒生港股通高股息率ETF</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>96.41</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0563</t>
+          <t>0.0918</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -7162,32 +10059,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>012072</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>中加喜利回报一年持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>38.07</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0478</t>
+          <t>0.0637</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -7200,32 +10097,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>513690</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>博时恒生港股通高股息率ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>96.86</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0391</t>
+          <t>0.0612</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -7238,36 +10135,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011158</t>
+          <t>241001</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>弘毅远方港股通智选领航混合C</t>
+          <t>华宝海外中国混合(QDII)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0342</t>
+          <t>0.0403</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -7276,36 +10173,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>004393</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>安信合作创新主题沪港深灵活配置混合</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>82.45</t>
+          <t>86.14</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0235</t>
+          <t>0.0346</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -7314,36 +10211,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>011652</t>
+          <t>005052</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>招商港股通核心精选股票C</t>
+          <t>上投摩根标普港股通低波红利指数C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>83.83</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0228</t>
+          <t>0.0274</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -7352,36 +10249,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>004393</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>87.51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0166</t>
+          <t>0.0267</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -7390,32 +10287,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009243</t>
+          <t>007216</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中加核心智造混合C</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>73.44</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0123</t>
+          <t>0.0172</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -7443,21 +10340,21 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>79.48</t>
+          <t>86.44</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0105</t>
+          <t>0.0122</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -7466,36 +10363,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>006106</t>
+          <t>011647</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>景顺长城量化港股通股票</t>
+          <t>博时港股通红利精选混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>86.07</t>
+          <t>87.11</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0099</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -7504,36 +10401,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>007216</t>
+          <t>009243</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+          <t>中加核心智造混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>76.93</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0092</t>
+          <t>0.0084</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -7542,36 +10439,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>86.14</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0075</t>
+          <t>0.0078</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -7580,36 +10477,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>011647</t>
+          <t>501303</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>博时港股通红利精选混合A</t>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>92.64</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0073</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -7618,36 +10515,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>004533</t>
+          <t>004996</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>92.64</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -7656,36 +10553,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>011648</t>
+          <t>160922</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>博时港股通红利精选混合C</t>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>91.78</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -7694,32 +10591,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>160922</t>
+          <t>011648</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+          <t>博时港股通红利精选混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>87.11</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -7732,36 +10629,34 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>006659</t>
+          <t>010667</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数C</t>
+          <t>安信价值回报三年持有期混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>92.42</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -7770,6 +10665,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1187</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>46.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5307</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008263</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红品质优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2052</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>46.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1718</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8623,7 +12676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9363,7 +13416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01088-中国神华.xlsx
+++ b/数据整理/stocks/港股/01088-中国神华.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D2" t="n">
-        <v>22.66</v>
+        <v>13.41</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="D3" t="n">
-        <v>11.78</v>
+        <v>22.66</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4" t="n">
-        <v>15.1</v>
+        <v>11.78</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D5" t="n">
-        <v>7.37</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>3.54</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>8.24</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>9.44</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,694 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>16</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4518</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008263</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红品质优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3542</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>169108</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红均衡优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3397</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2825</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1298,2912 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信稳健增利混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>102.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9807</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6543</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3076</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012892</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信优质企业三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7369</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012256</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4254</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014772</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中泰红利价值一年持有混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4138</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014771</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰红利优选一年持有混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3615</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商中华预期高股息C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3581</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>49.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3373</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012893</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信优质企业三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3335</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>40.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3257</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011841</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实兴锐优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3251</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012577</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国诚益回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2935</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商中华预期高股息A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2464</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015978</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信恒鑫增强债券A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2463</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004340</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康兴泰回报沪港深混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2456</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>49.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2363</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2167</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015979</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信恒鑫增强债券C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2136</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012702</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1917</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012576</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国诚益回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012250</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信平衡增利混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>63.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013485</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>尚正竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011842</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实兴锐优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012251</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>安信平衡增利混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>63.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012586</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>45.22</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012701</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>25.63</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>76.07</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010661</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>40.12</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012257</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>920011</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>513530</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>96.34</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>安信企业价值优选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159726</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏恒生中国内地企业高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014615</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>尚正正鑫混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>39.21</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>安信中国制造混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>920921</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013486</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>尚正竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>45.22</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012587</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014616</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>尚正正鑫混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>39.21</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4652,7 +8239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7096,7 +10683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9501,1162 +13088,6 @@
       </c>
       <c r="H63" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008809</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>安信民稳增长混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>49.86</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>44.43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.5030</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008954</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>安信价值回报三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>26.03</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.42</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.8976</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010728</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中泰兴诚价值一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>13.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>84.67</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.81</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0387</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007178</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.05</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2407</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005504</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富沪港深大盘价值混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.33</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2263</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>167508</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>安信价值发现两年定期开放混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.66</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2125</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010729</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中泰兴诚价值一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>84.67</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.81</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1882</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009242</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中加核心智造混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>76.93</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1860</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008810</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>安信民稳增长混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>44.43</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1501</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>012071</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中加喜利回报一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>38.07</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1199</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009849</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>安信稳健聚申一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>32.06</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0986</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>519139</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>海富通沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.38</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0986</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005051</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0918</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>012072</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中加喜利回报一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>38.07</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0637</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>513690</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>博时恒生港股通高股息率ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>96.86</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0612</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>241001</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华宝海外中国混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.63</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0403</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>501305</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>86.14</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0346</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005052</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0274</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004393</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>安信合作创新主题沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>87.51</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0267</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>007216</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>9.05</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>004098</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>前海开源港股通股息率50强股票</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>86.44</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>011647</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时港股通红利精选混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>87.11</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009243</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中加核心智造混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>76.93</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>501306</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>86.14</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>501303</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>92.64</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>004996</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>92.64</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>160922</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>91.78</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>011648</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>博时港股通红利精选混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>87.11</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>010667</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>安信价值回报三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>92.42</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -10691,7 +13122,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -10721,36 +13152,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010728</t>
+          <t>008809</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中泰兴诚价值一年持有期混合A</t>
+          <t>安信民稳增长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.43</t>
+          <t>49.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.83</t>
+          <t>44.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1187</t>
+          <t>2.5030</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -10759,36 +13190,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008809</t>
+          <t>008954</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信民稳增长混合A</t>
+          <t>安信价值回报三年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>26.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>46.92</t>
+          <t>92.42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5307</t>
+          <t>1.8976</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -10797,36 +13228,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008263</t>
+          <t>010728</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方红品质优选两年定期开放混合</t>
+          <t>中泰兴诚价值一年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25.71</t>
+          <t>13.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23.51</t>
+          <t>84.67</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3034</t>
+          <t>1.0387</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -10835,36 +13266,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010729</t>
+          <t>007178</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中泰兴诚价值一年持有期混合C</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82.83</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2052</t>
+          <t>0.2407</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -10873,36 +13304,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008810</t>
+          <t>005504</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安信民稳增长混合C</t>
+          <t>汇添富沪港深大盘价值混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>46.92</t>
+          <t>89.33</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1745</t>
+          <t>0.2263</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -10911,36 +13342,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009242</t>
+          <t>167508</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中加核心智造混合A</t>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>73.44</t>
+          <t>91.66</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1718</t>
+          <t>0.2125</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -10949,36 +13380,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011157</t>
+          <t>010729</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>弘毅远方港股通智选领航混合A</t>
+          <t>中泰兴诚价值一年持有期混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>84.67</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1654</t>
+          <t>0.1882</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -10987,36 +13418,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009849</t>
+          <t>009242</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>安信稳健聚申一年持有期混合</t>
+          <t>中加核心智造混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>29.37</t>
+          <t>76.93</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1408</t>
+          <t>0.1860</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -11025,36 +13456,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>008810</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>安信民稳增长混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>44.43</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1214</t>
+          <t>0.1501</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -11063,36 +13494,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007178</t>
+          <t>012071</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+          <t>中加喜利回报一年持有期混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>38.07</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1213</t>
+          <t>0.1199</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -11101,36 +13532,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011651</t>
+          <t>009849</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商港股通核心精选股票A</t>
+          <t>安信稳健聚申一年持有期混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>83.83</t>
+          <t>32.06</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0910</t>
+          <t>0.0986</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -11139,36 +13570,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>519139</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>海富通沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>91.38</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0880</t>
+          <t>0.0986</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -11177,32 +13608,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>513690</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>博时恒生港股通高股息率ETF</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>96.41</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0563</t>
+          <t>0.0918</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -11215,32 +13646,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>012072</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>中加喜利回报一年持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>38.07</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0478</t>
+          <t>0.0637</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -11253,32 +13684,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>513690</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>博时恒生港股通高股息率ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>96.86</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0391</t>
+          <t>0.0612</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -11291,36 +13722,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011158</t>
+          <t>241001</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>弘毅远方港股通智选领航混合C</t>
+          <t>华宝海外中国混合(QDII)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0342</t>
+          <t>0.0403</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -11329,36 +13760,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>004393</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>安信合作创新主题沪港深灵活配置混合</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>82.45</t>
+          <t>86.14</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0235</t>
+          <t>0.0346</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -11367,36 +13798,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>011652</t>
+          <t>005052</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>招商港股通核心精选股票C</t>
+          <t>上投摩根标普港股通低波红利指数C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>83.83</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0228</t>
+          <t>0.0274</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -11405,36 +13836,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>004393</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>87.51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0166</t>
+          <t>0.0267</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -11443,32 +13874,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009243</t>
+          <t>007216</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中加核心智造混合C</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>73.44</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0123</t>
+          <t>0.0172</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -11496,21 +13927,21 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>79.48</t>
+          <t>86.44</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0105</t>
+          <t>0.0122</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -11519,36 +13950,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>006106</t>
+          <t>011647</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>景顺长城量化港股通股票</t>
+          <t>博时港股通红利精选混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>86.07</t>
+          <t>87.11</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0099</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -11557,36 +13988,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>007216</t>
+          <t>009243</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+          <t>中加核心智造混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>76.93</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0092</t>
+          <t>0.0084</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -11595,36 +14026,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>86.14</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0075</t>
+          <t>0.0078</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -11633,36 +14064,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>011647</t>
+          <t>501303</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>博时港股通红利精选混合A</t>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>92.64</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0073</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -11671,36 +14102,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>004533</t>
+          <t>004996</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>92.64</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -11709,36 +14140,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>011648</t>
+          <t>160922</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>博时港股通红利精选混合C</t>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>91.78</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -11747,32 +14178,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>160922</t>
+          <t>011648</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+          <t>博时港股通红利精选混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>87.11</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -11785,36 +14216,34 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>006659</t>
+          <t>010667</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数C</t>
+          <t>安信价值回报三年持有期混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>92.42</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -11823,6 +14252,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1187</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>46.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5307</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008263</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红品质优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2052</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>46.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1718</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12676,7 +16263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13414,668 +17001,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008269</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成睿享混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.93</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4518</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008263</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方红品质优选两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>25.48</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>25.10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3542</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>169108</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方红均衡优选两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>22.20</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>23.80</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3397</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005974</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东方红配置精选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13.02</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>23.11</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2825</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009242</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中加核心智造混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1542</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005051</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0610</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>501305</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0461</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005975</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方红配置精选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>23.11</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0443</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008270</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成睿享混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>86.51</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0296</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>501306</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0216</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005052</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0211</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009243</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中加核心智造混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0153</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006106</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>景顺长城量化港股通股票</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>87.87</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005702</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>恒生前海港股通高股息低波动指数</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004532</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>95.17</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004533</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>95.17</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>